--- a/data/shopping_street_traffic_information/data.xlsx
+++ b/data/shopping_street_traffic_information/data.xlsx
@@ -457,31 +457,31 @@
         <v>兵庫町（西）</v>
       </c>
       <c r="E2" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F2" t="str">
-        <v>2718</v>
+        <v>2927</v>
       </c>
       <c r="G2" t="str">
-        <v>1908</v>
+        <v>2064</v>
       </c>
       <c r="H2" t="str">
-        <v>2598</v>
+        <v>2508</v>
       </c>
       <c r="I2" t="str">
-        <v>7224</v>
+        <v>7499</v>
       </c>
       <c r="J2" t="str">
-        <v>1950</v>
+        <v>2367</v>
       </c>
       <c r="K2" t="str">
-        <v>1586</v>
+        <v>1890</v>
       </c>
       <c r="L2" t="str">
-        <v>1822</v>
+        <v>1874</v>
       </c>
       <c r="M2" t="str">
-        <v>5359</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="3">
@@ -498,31 +498,31 @@
         <v>兵庫町（東）</v>
       </c>
       <c r="E3" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F3" t="str">
-        <v>4561</v>
+        <v>4914</v>
       </c>
       <c r="G3" t="str">
-        <v>4110</v>
+        <v>4227</v>
       </c>
       <c r="H3" t="str">
-        <v>3288</v>
+        <v>3190</v>
       </c>
       <c r="I3" t="str">
-        <v>11959</v>
+        <v>12331</v>
       </c>
       <c r="J3" t="str">
-        <v>4858</v>
+        <v>5627</v>
       </c>
       <c r="K3" t="str">
-        <v>4809</v>
+        <v>5119</v>
       </c>
       <c r="L3" t="str">
-        <v>2371</v>
+        <v>2355</v>
       </c>
       <c r="M3" t="str">
-        <v>12038</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="4">
@@ -539,31 +539,31 @@
         <v>片原町西（西）</v>
       </c>
       <c r="E4" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F4" t="str">
-        <v>4504</v>
+        <v>4657</v>
       </c>
       <c r="G4" t="str">
-        <v>5790</v>
+        <v>5651</v>
       </c>
       <c r="H4" t="str">
-        <v>1734</v>
+        <v>1622</v>
       </c>
       <c r="I4" t="str">
-        <v>12027</v>
+        <v>11930</v>
       </c>
       <c r="J4" t="str">
-        <v>5780</v>
+        <v>5995</v>
       </c>
       <c r="K4" t="str">
-        <v>8374</v>
+        <v>8195</v>
       </c>
       <c r="L4" t="str">
-        <v>1140</v>
+        <v>1081</v>
       </c>
       <c r="M4" t="str">
-        <v>15294</v>
+        <v>15270</v>
       </c>
     </row>
     <row r="5">
@@ -580,31 +580,31 @@
         <v>片原町西（東）</v>
       </c>
       <c r="E5" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F5" t="str">
-        <v>3068</v>
+        <v>3190</v>
       </c>
       <c r="G5" t="str">
-        <v>2650</v>
+        <v>2714</v>
       </c>
       <c r="H5" t="str">
-        <v>2948</v>
+        <v>2980</v>
       </c>
       <c r="I5" t="str">
-        <v>8666</v>
+        <v>8884</v>
       </c>
       <c r="J5" t="str">
-        <v>3551</v>
+        <v>3770</v>
       </c>
       <c r="K5" t="str">
-        <v>3575</v>
+        <v>3582</v>
       </c>
       <c r="L5" t="str">
-        <v>2150</v>
+        <v>2192</v>
       </c>
       <c r="M5" t="str">
-        <v>9275</v>
+        <v>9544</v>
       </c>
     </row>
     <row r="6">
@@ -621,31 +621,31 @@
         <v>片原町東（西）</v>
       </c>
       <c r="E6" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F6" t="str">
-        <v>1618</v>
+        <v>1740</v>
       </c>
       <c r="G6" t="str">
-        <v>1710</v>
+        <v>1794</v>
       </c>
       <c r="H6" t="str">
-        <v>2574</v>
+        <v>2544</v>
       </c>
       <c r="I6" t="str">
-        <v>5902</v>
+        <v>6077</v>
       </c>
       <c r="J6" t="str">
-        <v>1730</v>
+        <v>1904</v>
       </c>
       <c r="K6" t="str">
-        <v>1709</v>
+        <v>1801</v>
       </c>
       <c r="L6" t="str">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="M6" t="str">
-        <v>5431</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         <v>丸亀町（北）</v>
       </c>
       <c r="E7" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F7" t="str">
-        <v>4516</v>
+        <v>4912</v>
       </c>
       <c r="G7" t="str">
-        <v>5684</v>
+        <v>5880</v>
       </c>
       <c r="H7" t="str">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="I7" t="str">
-        <v>10543</v>
+        <v>11095</v>
       </c>
       <c r="J7" t="str">
-        <v>6503</v>
+        <v>7061</v>
       </c>
       <c r="K7" t="str">
-        <v>8541</v>
+        <v>8802</v>
       </c>
       <c r="L7" t="str">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="M7" t="str">
-        <v>15313</v>
+        <v>16096</v>
       </c>
     </row>
     <row r="8">
@@ -703,31 +703,31 @@
         <v>丸亀町（南）</v>
       </c>
       <c r="E8" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F8" t="str">
-        <v>4993</v>
+        <v>5473</v>
       </c>
       <c r="G8" t="str">
-        <v>5425</v>
+        <v>5479</v>
       </c>
       <c r="H8" t="str">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="I8" t="str">
-        <v>10858</v>
+        <v>11363</v>
       </c>
       <c r="J8" t="str">
-        <v>7596</v>
+        <v>8370</v>
       </c>
       <c r="K8" t="str">
-        <v>8887</v>
+        <v>8915</v>
       </c>
       <c r="L8" t="str">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M8" t="str">
-        <v>16847</v>
+        <v>17639</v>
       </c>
     </row>
     <row r="9">
@@ -744,31 +744,31 @@
         <v>ライオン通（北）</v>
       </c>
       <c r="E9" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F9" t="str">
-        <v>1408</v>
+        <v>1442</v>
       </c>
       <c r="G9" t="str">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="H9" t="str">
-        <v>1510</v>
+        <v>1444</v>
       </c>
       <c r="I9" t="str">
-        <v>4106</v>
+        <v>4090</v>
       </c>
       <c r="J9" t="str">
-        <v>1775</v>
+        <v>1889</v>
       </c>
       <c r="K9" t="str">
-        <v>1657</v>
+        <v>1694</v>
       </c>
       <c r="L9" t="str">
-        <v>1159</v>
+        <v>1133</v>
       </c>
       <c r="M9" t="str">
-        <v>4591</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="10">
@@ -785,31 +785,31 @@
         <v>ライオン通（南）</v>
       </c>
       <c r="E10" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F10" t="str">
-        <v>1357</v>
+        <v>1390</v>
       </c>
       <c r="G10" t="str">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="H10" t="str">
-        <v>1603</v>
+        <v>1659</v>
       </c>
       <c r="I10" t="str">
-        <v>3910</v>
+        <v>3988</v>
       </c>
       <c r="J10" t="str">
-        <v>1442</v>
+        <v>1597</v>
       </c>
       <c r="K10" t="str">
-        <v>1191</v>
+        <v>1233</v>
       </c>
       <c r="L10" t="str">
-        <v>1269</v>
+        <v>1381</v>
       </c>
       <c r="M10" t="str">
-        <v>3902</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="11">
@@ -826,31 +826,31 @@
         <v>南新町（南）</v>
       </c>
       <c r="E11" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F11" t="str">
-        <v>4122</v>
+        <v>4746</v>
       </c>
       <c r="G11" t="str">
-        <v>3293</v>
+        <v>3641</v>
       </c>
       <c r="H11" t="str">
-        <v>3378</v>
+        <v>3439</v>
       </c>
       <c r="I11" t="str">
-        <v>10793</v>
+        <v>11827</v>
       </c>
       <c r="J11" t="str">
-        <v>4774</v>
+        <v>5564</v>
       </c>
       <c r="K11" t="str">
-        <v>5010</v>
+        <v>5489</v>
       </c>
       <c r="L11" t="str">
-        <v>2377</v>
+        <v>2437</v>
       </c>
       <c r="M11" t="str">
-        <v>12161</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="12">
@@ -867,31 +867,31 @@
         <v>常磐町（西）</v>
       </c>
       <c r="E12" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F12" t="str">
-        <v>3044</v>
+        <v>3312</v>
       </c>
       <c r="G12" t="str">
-        <v>2851</v>
+        <v>2928</v>
       </c>
       <c r="H12" t="str">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="I12" t="str">
-        <v>7947</v>
+        <v>8294</v>
       </c>
       <c r="J12" t="str">
-        <v>3907</v>
+        <v>4332</v>
       </c>
       <c r="K12" t="str">
-        <v>3967</v>
+        <v>4157</v>
       </c>
       <c r="L12" t="str">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="M12" t="str">
-        <v>9367</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="13">
@@ -908,31 +908,31 @@
         <v>常磐町（東）</v>
       </c>
       <c r="E13" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F13" t="str">
-        <v>2024</v>
+        <v>2152</v>
       </c>
       <c r="G13" t="str">
-        <v>2090</v>
+        <v>2104</v>
       </c>
       <c r="H13" t="str">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="I13" t="str">
-        <v>4866</v>
+        <v>5015</v>
       </c>
       <c r="J13" t="str">
-        <v>2556</v>
+        <v>2756</v>
       </c>
       <c r="K13" t="str">
-        <v>2708</v>
+        <v>2751</v>
       </c>
       <c r="L13" t="str">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="M13" t="str">
-        <v>5833</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="14">
@@ -949,31 +949,31 @@
         <v>田町（中）</v>
       </c>
       <c r="E14" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F14" t="str">
-        <v>2343</v>
+        <v>2410</v>
       </c>
       <c r="G14" t="str">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="H14" t="str">
-        <v>3870</v>
+        <v>3826</v>
       </c>
       <c r="I14" t="str">
-        <v>8162</v>
+        <v>8182</v>
       </c>
       <c r="J14" t="str">
-        <v>2055</v>
+        <v>2201</v>
       </c>
       <c r="K14" t="str">
-        <v>1764</v>
+        <v>1884</v>
       </c>
       <c r="L14" t="str">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="M14" t="str">
-        <v>6520</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="15">
@@ -990,31 +990,31 @@
         <v>菊池寛通（南）</v>
       </c>
       <c r="E15" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F15" t="str">
-        <v>1564</v>
+        <v>1662</v>
       </c>
       <c r="G15" t="str">
-        <v>1482</v>
+        <v>1513</v>
       </c>
       <c r="H15" t="str">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I15" t="str">
-        <v>3308</v>
+        <v>3432</v>
       </c>
       <c r="J15" t="str">
-        <v>1039</v>
+        <v>1076</v>
       </c>
       <c r="K15" t="str">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="L15" t="str">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M15" t="str">
-        <v>2050</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="16">
@@ -1031,31 +1031,31 @@
         <v>菊池寛通（北）</v>
       </c>
       <c r="E16" t="str">
-        <v>2023年　平均</v>
+        <v>2024年　平均</v>
       </c>
       <c r="F16" t="str">
-        <v>1940</v>
+        <v>2085</v>
       </c>
       <c r="G16" t="str">
-        <v>1810</v>
+        <v>1872</v>
       </c>
       <c r="H16" t="str">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="I16" t="str">
-        <v>4843</v>
+        <v>5039</v>
       </c>
       <c r="J16" t="str">
-        <v>2168</v>
+        <v>2408</v>
       </c>
       <c r="K16" t="str">
-        <v>2114</v>
+        <v>2228</v>
       </c>
       <c r="L16" t="str">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="M16" t="str">
-        <v>5028</v>
+        <v>5393</v>
       </c>
     </row>
   </sheetData>
